--- a/James Kwan Time log.xlsx
+++ b/James Kwan Time log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A2EEF8-257B-804C-BAA0-A0EEE966025E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90E7B59-11A7-FE4B-A7DC-5A5528556A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="148">
   <si>
     <t>James Kwan (VCIC)</t>
   </si>
@@ -446,6 +446,48 @@
   </si>
   <si>
     <t>Discussed with supervisor about part 3 task 3</t>
+  </si>
+  <si>
+    <t>Half way done with part 3 of task 3, will meet supervisor after class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Met up with supervisor, will show him the code on Wednesday </t>
+  </si>
+  <si>
+    <t>Did some coding and reviewed part 1 and 2 of task 3</t>
+  </si>
+  <si>
+    <t>Trying to finish up part 3 and show supervisor and do a pull request later</t>
+  </si>
+  <si>
+    <t>Met up with supervisor, talked about task 4 and will review my pull request on github once I post it</t>
+  </si>
+  <si>
+    <t>Search up how to check if a file is csv and how to validate the requirements, page continuity</t>
+  </si>
+  <si>
+    <t>Looked up whether or not I did the validation correctly</t>
+  </si>
+  <si>
+    <t>Finishing up part 3, going to show supervisor on Monday then do a pull request</t>
+  </si>
+  <si>
+    <t>Need to record 2nd demo and do task 4 research soon</t>
+  </si>
+  <si>
+    <t>Checked blackboard, updated github and recorded 2nd demo</t>
+  </si>
+  <si>
+    <t>Scheduled to meet with supervisor in the morning and also asked him about task 4 on email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Going to ask him about task 4 and 5 </t>
+  </si>
+  <si>
+    <t>Ran the code to see if it works, not sure if it's working because it didn't give any errors even when I type the csv wrong on purpose</t>
+  </si>
+  <si>
+    <t>Going to finish up task 3 and do pull request tmr after supervisor reviews code first</t>
   </si>
 </sst>
 </file>
@@ -1052,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P145"/>
+  <dimension ref="A1:P159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="G138" sqref="G138:J139"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="M166" sqref="M166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3592,7 +3634,7 @@
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
@@ -3691,7 +3733,7 @@
       <c r="N124" s="3"/>
       <c r="O124" s="6">
         <f>SUM(C106:C123)</f>
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="P124" s="7"/>
     </row>
@@ -3714,13 +3756,21 @@
       <c r="P125" s="9"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A126" s="5"/>
+      <c r="A126" s="5">
+        <v>45597</v>
+      </c>
       <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
+      <c r="C126" s="3">
+        <v>3.5</v>
+      </c>
       <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
+      <c r="E126" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
+      <c r="G126" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
@@ -3746,13 +3796,21 @@
       <c r="N127" s="3"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A128" s="5"/>
+      <c r="A128" s="5">
+        <v>45600</v>
+      </c>
       <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
+      <c r="C128" s="3">
+        <v>3</v>
+      </c>
       <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
+      <c r="E128" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
+      <c r="G128" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
@@ -3778,13 +3836,21 @@
       <c r="N129" s="3"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A130" s="5"/>
+      <c r="A130" s="5">
+        <v>45600</v>
+      </c>
       <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
+      <c r="C130" s="3">
+        <v>1</v>
+      </c>
       <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
+      <c r="E130" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
+      <c r="G130" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
@@ -3810,13 +3876,21 @@
       <c r="N131" s="3"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A132" s="5"/>
+      <c r="A132" s="5">
+        <v>45601</v>
+      </c>
       <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
+      <c r="C132" s="3">
+        <v>2</v>
+      </c>
       <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
+      <c r="E132" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
+      <c r="G132" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
@@ -3842,13 +3916,21 @@
       <c r="N133" s="3"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A134" s="5"/>
+      <c r="A134" s="5">
+        <v>45602</v>
+      </c>
       <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
+      <c r="C134" s="3">
+        <v>2</v>
+      </c>
       <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
+      <c r="E134" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
+      <c r="G134" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
@@ -3856,6 +3938,11 @@
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
       <c r="N134" s="3"/>
+      <c r="O134" s="6">
+        <f>SUM(C124:C133)</f>
+        <v>10</v>
+      </c>
+      <c r="P134" s="7"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
@@ -3872,15 +3959,25 @@
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
       <c r="N135" s="3"/>
+      <c r="O135" s="8"/>
+      <c r="P135" s="9"/>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A136" s="5"/>
+      <c r="A136" s="5">
+        <v>45602</v>
+      </c>
       <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
+      <c r="C136" s="3">
+        <v>1</v>
+      </c>
       <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
+      <c r="E136" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
+      <c r="G136" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
@@ -3906,13 +4003,21 @@
       <c r="N137" s="3"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A138" s="5"/>
+      <c r="A138" s="5">
+        <v>45603</v>
+      </c>
       <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
+      <c r="C138" s="3">
+        <v>2</v>
+      </c>
       <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
+      <c r="E138" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
+      <c r="G138" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
@@ -3938,25 +4043,30 @@
       <c r="N139" s="3"/>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A140" s="5"/>
+      <c r="A140" s="5">
+        <v>45605</v>
+      </c>
       <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
+      <c r="C140" s="3">
+        <v>0.5</v>
+      </c>
       <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
+      <c r="E140" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
+      <c r="G140" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
-      <c r="K140" s="4"/>
+      <c r="K140" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
       <c r="N140" s="3"/>
-      <c r="O140" s="6">
-        <f>SUM(C124:C141)</f>
-        <v>0.5</v>
-      </c>
-      <c r="P140" s="7"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
@@ -3973,24 +4083,348 @@
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
       <c r="N141" s="3"/>
-      <c r="O141" s="8"/>
-      <c r="P141" s="9"/>
-    </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C145" s="16">
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A142" s="5">
+        <v>45606</v>
+      </c>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3">
+        <v>1</v>
+      </c>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="3"/>
+      <c r="K142" s="4"/>
+      <c r="L142" s="3"/>
+      <c r="M142" s="3"/>
+      <c r="N142" s="3"/>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="3"/>
+      <c r="K143" s="3"/>
+      <c r="L143" s="3"/>
+      <c r="M143" s="3"/>
+      <c r="N143" s="3"/>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A144" s="5">
+        <v>45606</v>
+      </c>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="3"/>
+      <c r="K144" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="L144" s="3"/>
+      <c r="M144" s="3"/>
+      <c r="N144" s="3"/>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
+      <c r="K145" s="3"/>
+      <c r="L145" s="3"/>
+      <c r="M145" s="3"/>
+      <c r="N145" s="3"/>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A146" s="5">
+        <v>45606</v>
+      </c>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
+      <c r="K146" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="L146" s="3"/>
+      <c r="M146" s="3"/>
+      <c r="N146" s="3"/>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
+      <c r="K147" s="3"/>
+      <c r="L147" s="3"/>
+      <c r="M147" s="3"/>
+      <c r="N147" s="3"/>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A148" s="5"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
+      <c r="K148" s="4"/>
+      <c r="L148" s="3"/>
+      <c r="M148" s="3"/>
+      <c r="N148" s="3"/>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+      <c r="K149" s="3"/>
+      <c r="L149" s="3"/>
+      <c r="M149" s="3"/>
+      <c r="N149" s="3"/>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A150" s="5"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="3"/>
+      <c r="M150" s="3"/>
+      <c r="N150" s="3"/>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="3"/>
+      <c r="K151" s="3"/>
+      <c r="L151" s="3"/>
+      <c r="M151" s="3"/>
+      <c r="N151" s="3"/>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A152" s="5"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+      <c r="J152" s="3"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="3"/>
+      <c r="M152" s="3"/>
+      <c r="N152" s="3"/>
+      <c r="O152" s="6">
+        <f>SUM(C134:C151)</f>
+        <v>7.5</v>
+      </c>
+      <c r="P152" s="7"/>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
+      <c r="J153" s="3"/>
+      <c r="K153" s="3"/>
+      <c r="L153" s="3"/>
+      <c r="M153" s="3"/>
+      <c r="N153" s="3"/>
+      <c r="O153" s="8"/>
+      <c r="P153" s="9"/>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A154" s="5"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3"/>
+      <c r="K154" s="4"/>
+      <c r="L154" s="3"/>
+      <c r="M154" s="3"/>
+      <c r="N154" s="3"/>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="3"/>
+      <c r="K155" s="3"/>
+      <c r="L155" s="3"/>
+      <c r="M155" s="3"/>
+      <c r="N155" s="3"/>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A156" s="5"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="3"/>
+      <c r="J156" s="3"/>
+      <c r="K156" s="4"/>
+      <c r="L156" s="3"/>
+      <c r="M156" s="3"/>
+      <c r="N156" s="3"/>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
+      <c r="K157" s="3"/>
+      <c r="L157" s="3"/>
+      <c r="M157" s="3"/>
+      <c r="N157" s="3"/>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C159" s="16">
         <f>SUM(C6:C141)</f>
-        <v>114.5</v>
-      </c>
-      <c r="D145" s="16"/>
+        <v>130.5</v>
+      </c>
+      <c r="D159" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="360">
+  <mergeCells count="401">
+    <mergeCell ref="A156:B157"/>
+    <mergeCell ref="C156:D157"/>
+    <mergeCell ref="E156:F157"/>
+    <mergeCell ref="G156:J157"/>
+    <mergeCell ref="K156:N157"/>
+    <mergeCell ref="A152:B153"/>
+    <mergeCell ref="C152:D153"/>
+    <mergeCell ref="E152:F153"/>
+    <mergeCell ref="G152:J153"/>
+    <mergeCell ref="K152:N153"/>
+    <mergeCell ref="A154:B155"/>
+    <mergeCell ref="C154:D155"/>
+    <mergeCell ref="E154:F155"/>
+    <mergeCell ref="G154:J155"/>
+    <mergeCell ref="K154:N155"/>
+    <mergeCell ref="A148:B149"/>
+    <mergeCell ref="C148:D149"/>
+    <mergeCell ref="E148:F149"/>
+    <mergeCell ref="G148:J149"/>
+    <mergeCell ref="K148:N149"/>
+    <mergeCell ref="A150:B151"/>
+    <mergeCell ref="C150:D151"/>
+    <mergeCell ref="E150:F151"/>
+    <mergeCell ref="G150:J151"/>
+    <mergeCell ref="K150:N151"/>
+    <mergeCell ref="A144:B145"/>
+    <mergeCell ref="C144:D145"/>
+    <mergeCell ref="E144:F145"/>
+    <mergeCell ref="G144:J145"/>
+    <mergeCell ref="K144:N145"/>
+    <mergeCell ref="A146:B147"/>
+    <mergeCell ref="C146:D147"/>
+    <mergeCell ref="E146:F147"/>
+    <mergeCell ref="G146:J147"/>
+    <mergeCell ref="K146:N147"/>
     <mergeCell ref="A140:B141"/>
     <mergeCell ref="C140:D141"/>
     <mergeCell ref="E140:F141"/>
     <mergeCell ref="G140:J141"/>
     <mergeCell ref="K140:N141"/>
-    <mergeCell ref="O140:P141"/>
+    <mergeCell ref="O134:P135"/>
     <mergeCell ref="A136:B137"/>
     <mergeCell ref="C136:D137"/>
     <mergeCell ref="E136:F137"/>
@@ -4001,6 +4435,12 @@
     <mergeCell ref="E138:F139"/>
     <mergeCell ref="G138:J139"/>
     <mergeCell ref="K138:N139"/>
+    <mergeCell ref="O152:P153"/>
+    <mergeCell ref="A142:B143"/>
+    <mergeCell ref="C142:D143"/>
+    <mergeCell ref="E142:F143"/>
+    <mergeCell ref="G142:J143"/>
+    <mergeCell ref="K142:N143"/>
     <mergeCell ref="A132:B133"/>
     <mergeCell ref="C132:D133"/>
     <mergeCell ref="E132:F133"/>
@@ -4031,7 +4471,7 @@
     <mergeCell ref="E126:F127"/>
     <mergeCell ref="G126:J127"/>
     <mergeCell ref="K126:N127"/>
-    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="C159:D159"/>
     <mergeCell ref="A116:B117"/>
     <mergeCell ref="C116:D117"/>
     <mergeCell ref="E116:F117"/>
@@ -4124,6 +4564,13 @@
     <mergeCell ref="E64:F65"/>
     <mergeCell ref="G64:J65"/>
     <mergeCell ref="K64:N65"/>
+    <mergeCell ref="A66:B67"/>
+    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="E66:F67"/>
+    <mergeCell ref="G66:J67"/>
+    <mergeCell ref="K66:N67"/>
+    <mergeCell ref="A68:B69"/>
+    <mergeCell ref="C68:D69"/>
     <mergeCell ref="G56:J57"/>
     <mergeCell ref="K56:N57"/>
     <mergeCell ref="A58:B59"/>
@@ -4277,13 +4724,6 @@
     <mergeCell ref="K34:N35"/>
     <mergeCell ref="A38:B39"/>
     <mergeCell ref="A44:B45"/>
-    <mergeCell ref="A66:B67"/>
-    <mergeCell ref="C66:D67"/>
-    <mergeCell ref="E66:F67"/>
-    <mergeCell ref="G66:J67"/>
-    <mergeCell ref="K66:N67"/>
-    <mergeCell ref="A68:B69"/>
-    <mergeCell ref="C68:D69"/>
     <mergeCell ref="E68:F69"/>
     <mergeCell ref="G68:J69"/>
     <mergeCell ref="K68:N69"/>

--- a/James Kwan Time log.xlsx
+++ b/James Kwan Time log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F020280B-AD4D-6843-A75B-3CE545EC1C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6BB612-7764-2445-9481-A996560EE9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="155">
   <si>
     <t>James Kwan (VCIC)</t>
   </si>
@@ -497,6 +497,18 @@
   </si>
   <si>
     <t>Finished task 3, waiting for feedback on pull request.</t>
+  </si>
+  <si>
+    <t>Waiting for feedback for pull request. Going to see if I'm missing anything on part 3</t>
+  </si>
+  <si>
+    <t>Checked github, supervisor assigned task 4, going to meet up with supervisor tmr</t>
+  </si>
+  <si>
+    <t>Started Task 4 and organized the repository.</t>
+  </si>
+  <si>
+    <t>Going to either do it in python or regular script.</t>
   </si>
 </sst>
 </file>
@@ -4278,7 +4290,9 @@
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
-      <c r="K150" s="5"/>
+      <c r="K150" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="L150" s="4"/>
       <c r="M150" s="4"/>
       <c r="N150" s="4"/>
@@ -4300,13 +4314,21 @@
       <c r="N151" s="4"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A152" s="3"/>
+      <c r="A152" s="3">
+        <v>45608</v>
+      </c>
       <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
+      <c r="C152" s="4">
+        <v>1</v>
+      </c>
       <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
+      <c r="E152" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
+      <c r="G152" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
@@ -4332,17 +4354,27 @@
       <c r="N153" s="4"/>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A154" s="3"/>
+      <c r="A154" s="3">
+        <v>45608</v>
+      </c>
       <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
+      <c r="C154" s="4">
+        <v>2</v>
+      </c>
       <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
+      <c r="E154" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
+      <c r="G154" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
-      <c r="K154" s="5"/>
+      <c r="K154" s="5" t="s">
+        <v>154</v>
+      </c>
       <c r="L154" s="4"/>
       <c r="M154" s="4"/>
       <c r="N154" s="4"/>
@@ -4398,7 +4430,7 @@
     <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="O158" s="6">
         <f>SUM(C134:C157)</f>
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="P158" s="7"/>
     </row>
@@ -4409,7 +4441,7 @@
     <row r="174" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C174" s="10">
         <f>SUM(C6:C173)</f>
-        <v>136.5</v>
+        <v>139.5</v>
       </c>
       <c r="D174" s="10"/>
     </row>
